--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-30T15:46:36+00:00</t>
+    <t>2025-07-31T09:39:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:39:48+00:00</t>
+    <t>2025-07-31T12:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
+++ b/315-flux---mise-a-jour-des-requêtes-de-flux-pour-intégrer-les-nouvelles-rc/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T12:13:32+00:00</t>
+    <t>2025-07-31T12:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
